--- a/Meetings/Create New Location Setup/Main.rvl.xlsx
+++ b/Meetings/Create New Location Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="121">
   <si>
     <t>Flow</t>
   </si>
@@ -325,6 +325,57 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>***Test creates the Event Setup "TUXr Event."</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Event Setup to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Event Setup is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Event Setup.</t>
+  </si>
+  <si>
+    <t>***Test creates the Location "TUXr Location"</t>
+  </si>
+  <si>
+    <t>****Test first searches for the Location to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the Location is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the Location.</t>
+  </si>
+  <si>
+    <t>Create new Location for testing.</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Check if TUXr Location exists before creating new Location.</t>
+  </si>
+  <si>
+    <t>ux_CheckHeaderValue</t>
+  </si>
+  <si>
+    <t>ExpectedValue</t>
+  </si>
+  <si>
+    <t>TUXr Location2</t>
   </si>
 </sst>
 </file>
@@ -345,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="240">
+  <borders count="250">
     <border>
       <left/>
       <right/>
@@ -592,11 +643,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -837,6 +898,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="239" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="240" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -916,478 +987,447 @@
       <c r="A4" s="231"/>
     </row>
     <row r="5">
-      <c r="A5" s="227"/>
+      <c r="A5" s="242"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="241"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="240" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="227"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="181"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="247"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="246"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="245"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="244"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="243"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="249"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="178"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="177"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="176"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="175"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="174"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="173"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="172"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="181"/>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="180"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="179" t="s">
+    <row r="25">
+      <c r="A25" s="237" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="168"/>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="167"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="178"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="165"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="163"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D32" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="177"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="176"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="175"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="174"/>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="173"/>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="172"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="236" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="237" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="169" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="168"/>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="167"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="166" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="165"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="164" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="163"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="162"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="161"/>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="188"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="189"/>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="191"/>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="192"/>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
       <c r="F32" t="s">
         <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="193"/>
+      <c r="A33" s="162"/>
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -1395,195 +1435,215 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="194"/>
+      <c r="A34" s="161"/>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="196"/>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
+      <c r="D35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="16"/>
     </row>
     <row r="36">
-      <c r="A36" s="197"/>
+      <c r="A36" s="188"/>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="190" t="s">
-        <v>7</v>
-      </c>
+      <c r="A37" s="189"/>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
         <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="191"/>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="192"/>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="193"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="194"/>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="196"/>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="197"/>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="190" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="195"/>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="32"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="198"/>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="40"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="212"/>
       <c r="B44" t="s">
         <v>3</v>
       </c>
@@ -1591,70 +1651,62 @@
         <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="211"/>
+      <c r="A45" s="195"/>
       <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="210"/>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
+      <c r="D46" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="32"/>
     </row>
     <row r="47">
-      <c r="A47" s="209"/>
+      <c r="A47" s="198"/>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
         <v>39</v>
@@ -1663,180 +1715,331 @@
         <v>13</v>
       </c>
       <c r="G47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="40"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="56"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="212"/>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="211"/>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="210"/>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="209"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="208"/>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="55">
+      <c r="A55" s="208"/>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D55" t="s">
         <v>41</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E55" t="s">
         <v>42</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F55" t="s">
         <v>43</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="207"/>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
+    <row r="56">
+      <c r="A56" s="207"/>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
         <v>70</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E56" t="s">
         <v>47</v>
       </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
         <v>66</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="206"/>
-      <c r="B50" t="s">
+    <row r="57">
+      <c r="A57" s="206"/>
+      <c r="B57" t="s">
         <v>11</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E57" t="s">
         <v>49</v>
       </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="57"/>
-      <c r="B51" s="58" t="s">
+    <row r="58">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61" t="s">
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="63" t="s">
+      <c r="F58" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="64"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="65" t="s">
+      <c r="H58" s="64"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="248"/>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B60" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C60" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D60" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="69" t="s">
+      <c r="E60" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F60" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G52" s="71" t="s">
+      <c r="G60" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="72"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="96"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="105"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="112"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="121"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="128"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="129"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="136"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="137"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="144"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="145"/>
-      <c r="B58" s="146"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="149"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="152"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="153"/>
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="159"/>
-      <c r="H59" s="160"/>
+      <c r="H60" s="72"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="96"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="105"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="112"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="121"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="128"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="129"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="133"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="135"/>
+      <c r="H64" s="136"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="137"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="140"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="144"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="145"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="151"/>
+      <c r="H66" s="152"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="153"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="159"/>
+      <c r="H67" s="160"/>
     </row>
   </sheetData>
 </worksheet>
